--- a/sources/sitemaps_bolag.xlsx
+++ b/sources/sitemaps_bolag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcih.sharepoint.com/sites/Micro/Delade dokument/Portfölj/GitHub/kodning/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_70A79E372A46A9EF4771D4C73C473D3775FD81F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA37BD14-E499-456D-AF56-F4BFB810A689}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_70A79E372A46A9EF4771D4C73C473D3775FD81F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30CE7A2E-D6F2-42E5-B848-2449A11E9F7E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Bolag</t>
   </si>
@@ -244,13 +244,31 @@
   </si>
   <si>
     <t>https://www.seafireab.com/sitemap.xml</t>
+  </si>
+  <si>
+    <t>DistIT</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-page-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-mfn_news-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-shareholders-meeting-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-daughter-company-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-quote-1.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +289,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,10 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -311,8 +338,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -326,6 +357,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,10 +651,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1136,69 @@
         <v>63</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C44" r:id="rId1" xr:uid="{54D77CD0-E2B2-4A5C-B67C-91A40F3A3F41}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{312B42CC-BF71-4684-96D5-5BF9D2E5DDA3}"/>
+    <hyperlink ref="C46" r:id="rId3" xr:uid="{3E51AF5F-6AB4-45EA-8AA1-7E599D13E5DC}"/>
+    <hyperlink ref="C47" r:id="rId4" xr:uid="{61F18303-2599-4E65-AB9C-66ACD3958086}"/>
+    <hyperlink ref="C48" r:id="rId5" xr:uid="{1C99F4AA-6A89-48C1-AAB6-ECD93303CCF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1118,15 +1215,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
     <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
@@ -1327,6 +1415,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C77624-1839-402C-9D75-CB007BEEABB8}">
   <ds:schemaRefs>
@@ -1339,14 +1436,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3963DCEA-A65C-4546-8CFC-86412C95EBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B06A9AA-BF54-46FE-9B55-11B2EF4E42A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1363,4 +1452,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3963DCEA-A65C-4546-8CFC-86412C95EBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sources/sitemaps_bolag.xlsx
+++ b/sources/sitemaps_bolag.xlsx
@@ -1146,4 +1146,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF183C4-DB8C-4772-BC99-D9AAFB51EEF7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CCD73D8-7C61-4348-AE78-6A0D0BCD7CE0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBBC613-54C1-4942-A875-A466CBD17C0D}"/>
 </file>
--- a/sources/sitemaps_bolag.xlsx
+++ b/sources/sitemaps_bolag.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>Bolag</t>
   </si>
@@ -72,6 +72,24 @@
     <t>https://adtraction.com/sitemap.xml</t>
   </si>
   <si>
+    <t>https://adtraction.com/se/sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://adtraction.com/fi/sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://adtraction.com/dk/sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://adtraction.com/no/sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://adtraction.com/de/sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://adtraction.com/es/sitemap.xml</t>
+  </si>
+  <si>
     <t>RugVista</t>
   </si>
   <si>
@@ -232,6 +250,36 @@
   </si>
   <si>
     <t>https://www.seafireab.com/sitemap.xml</t>
+  </si>
+  <si>
+    <t>Tradedoubler</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-grow-blog-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-quarterly-reports-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-corporate-press-releases-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-podcast-transcripts-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/blog-posts-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/blog-categories-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/sv_sv-dynamic-td-sitemap.xml</t>
+  </si>
+  <si>
+    <t>Addrevenue</t>
+  </si>
+  <si>
+    <t>https://addrevenue.io/sitemap_sv.xml</t>
   </si>
   <si>
     <t>DistIT</t>
@@ -307,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,6 +364,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -626,15 +677,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="63.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="63.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -670,103 +721,103 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -777,125 +828,125 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
@@ -903,10 +954,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -914,10 +965,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
@@ -925,222 +976,376 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1370,13 +1575,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF183C4-DB8C-4772-BC99-D9AAFB51EEF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE381D4F-434F-4262-BD36-C0F931C1CCAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CCD73D8-7C61-4348-AE78-6A0D0BCD7CE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A488FEF-A1D4-458C-B46D-B8399FA1F172}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBBC613-54C1-4942-A875-A466CBD17C0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{113B2DC3-B864-43ED-9CD7-D8C5274BC41E}"/>
 </file>
--- a/sources/sitemaps_bolag.xlsx
+++ b/sources/sitemaps_bolag.xlsx
@@ -57,6 +57,15 @@
     <t>Länk</t>
   </si>
   <si>
+    <t>Addrevenue</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>https://addrevenue.io/sitemap_sv.xml</t>
+  </si>
+  <si>
     <t>Adtraction</t>
   </si>
   <si>
@@ -66,9 +75,6 @@
     <t>https://investor.adtraction.com/sitemap.xml</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
     <t>https://adtraction.com/sitemap.xml</t>
   </si>
   <si>
@@ -90,6 +96,126 @@
     <t>https://adtraction.com/es/sitemap.xml</t>
   </si>
   <si>
+    <t>Berner Industrier</t>
+  </si>
+  <si>
+    <t>Web + IR</t>
+  </si>
+  <si>
+    <t>https://www.bernerindustrier.se/en/wp-sitemap-posts-post-1.xml</t>
+  </si>
+  <si>
+    <t>https://www.bernerindustrier.se/en/wp-sitemap-posts-page-1.xml</t>
+  </si>
+  <si>
+    <t>DistIT</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-page-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-mfn_news-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-shareholders-meeting-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-daughter-company-1.xml</t>
+  </si>
+  <si>
+    <t>https://distit.se/sv/wp-sitemap-posts-quote-1.xml</t>
+  </si>
+  <si>
+    <t>EQL Pharma</t>
+  </si>
+  <si>
+    <t>https://investor.eqlpharma.com/page-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://investor.eqlpharma.com/team-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://eqlpharma.com/post-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://eqlpharma.com/page-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://eqlpharma.com/category-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://eqlpharma.com/author-sitemap.xml</t>
+  </si>
+  <si>
+    <t>Exsitec</t>
+  </si>
+  <si>
+    <t>https://www.exsitec.com/sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.exsitec.se/sitemap.xml</t>
+  </si>
+  <si>
+    <t>Fractal</t>
+  </si>
+  <si>
+    <t>https://group.fractal-design.com/page-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://group.fractal-design.com/cff_article-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://group.fractal-design.com/jobs-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://group.fractal-design.com/reports-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.fractal-design.com/post-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.fractal-design.com/page-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.fractal-design.com/retailers-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.fractal-design.com/downloads-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.fractal-design.com/category-sitemap.xml</t>
+  </si>
+  <si>
+    <t>Grassfish</t>
+  </si>
+  <si>
+    <t>https://grassfish.com/sitemap.xml</t>
+  </si>
+  <si>
+    <t>Infracom</t>
+  </si>
+  <si>
+    <t>https://infracomgroup.se/post-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://infracomgroup.se/page-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://infracomgroup.se/attachment-sitemap.xml</t>
+  </si>
+  <si>
+    <t>Litium</t>
+  </si>
+  <si>
+    <t>https://www.litium.com/sitemap.xml</t>
+  </si>
+  <si>
+    <t>Qualisys</t>
+  </si>
+  <si>
+    <t>https://investors.qualisys.com/en/wp-sitemap-posts-post-1.xml</t>
+  </si>
+  <si>
     <t>RugVista</t>
   </si>
   <si>
@@ -99,25 +225,55 @@
     <t>https://corporate.rugvista.com/sitemap.xml</t>
   </si>
   <si>
-    <t>Litium</t>
-  </si>
-  <si>
-    <t>Web + IR</t>
-  </si>
-  <si>
-    <t>https://www.litium.com/sitemap.xml</t>
-  </si>
-  <si>
-    <t>Infracom</t>
-  </si>
-  <si>
-    <t>https://infracomgroup.se/post-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://infracomgroup.se/page-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://infracomgroup.se/attachment-sitemap.xml</t>
+    <t>Seafire</t>
+  </si>
+  <si>
+    <t>https://www.seafireab.com/sitemap.xml</t>
+  </si>
+  <si>
+    <t>Smart Eye</t>
+  </si>
+  <si>
+    <t>https://www.smarteye.se/post-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.smarteye.se/page-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.smarteye.se/category-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.smarteye.se/post_tag-sitemap.xml</t>
+  </si>
+  <si>
+    <t>Söder Sportfiske</t>
+  </si>
+  <si>
+    <t>https://www.sodersportfiske.se/sitemap.xml</t>
+  </si>
+  <si>
+    <t>Tradedoubler</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-grow-blog-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-quarterly-reports-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-corporate-press-releases-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/dynamic-podcast-transcripts-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/blog-posts-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/blog-categories-sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://www.tradedoubler.com/sv_sv-dynamic-td-sitemap.xml</t>
   </si>
   <si>
     <t>Upsales</t>
@@ -138,166 +294,10 @@
     <t>https://vertiseit.com/mfn-news-tag-sitemap.xml</t>
   </si>
   <si>
-    <t>Grassfish</t>
-  </si>
-  <si>
-    <t>https://grassfish.com/sitemap.xml</t>
-  </si>
-  <si>
     <t>Visual Art</t>
   </si>
   <si>
     <t>https://visualart.com/sitemap.xml</t>
-  </si>
-  <si>
-    <t>Exsitec</t>
-  </si>
-  <si>
-    <t>https://www.exsitec.com/sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.exsitec.se/sitemap.xml</t>
-  </si>
-  <si>
-    <t>Fractal</t>
-  </si>
-  <si>
-    <t>https://group.fractal-design.com/page-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://group.fractal-design.com/cff_article-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://group.fractal-design.com/jobs-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://group.fractal-design.com/reports-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.fractal-design.com/post-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.fractal-design.com/page-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.fractal-design.com/retailers-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.fractal-design.com/downloads-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.fractal-design.com/category-sitemap.xml</t>
-  </si>
-  <si>
-    <t>Söder Sportfiske</t>
-  </si>
-  <si>
-    <t>https://www.sodersportfiske.se/sitemap.xml</t>
-  </si>
-  <si>
-    <t>Smart Eye</t>
-  </si>
-  <si>
-    <t>https://www.smarteye.se/post-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.smarteye.se/page-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.smarteye.se/category-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.smarteye.se/post_tag-sitemap.xml</t>
-  </si>
-  <si>
-    <t>EQL Pharma</t>
-  </si>
-  <si>
-    <t>https://investor.eqlpharma.com/page-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://investor.eqlpharma.com/team-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://eqlpharma.com/post-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://eqlpharma.com/page-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://eqlpharma.com/category-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://eqlpharma.com/author-sitemap.xml</t>
-  </si>
-  <si>
-    <t>Berner Industrier</t>
-  </si>
-  <si>
-    <t>https://www.bernerindustrier.se/en/wp-sitemap-posts-post-1.xml</t>
-  </si>
-  <si>
-    <t>https://www.bernerindustrier.se/en/wp-sitemap-posts-page-1.xml</t>
-  </si>
-  <si>
-    <t>Qualisys</t>
-  </si>
-  <si>
-    <t>https://investors.qualisys.com/en/wp-sitemap-posts-post-1.xml</t>
-  </si>
-  <si>
-    <t>Seafire</t>
-  </si>
-  <si>
-    <t>https://www.seafireab.com/sitemap.xml</t>
-  </si>
-  <si>
-    <t>Tradedoubler</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/dynamic-grow-blog-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/dynamic-quarterly-reports-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/dynamic-corporate-press-releases-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/dynamic-podcast-transcripts-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/blog-posts-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/blog-categories-sitemap.xml</t>
-  </si>
-  <si>
-    <t>https://www.tradedoubler.com/sv_sv-dynamic-td-sitemap.xml</t>
-  </si>
-  <si>
-    <t>Addrevenue</t>
-  </si>
-  <si>
-    <t>https://addrevenue.io/sitemap_sv.xml</t>
-  </si>
-  <si>
-    <t>DistIT</t>
-  </si>
-  <si>
-    <t>https://distit.se/sv/wp-sitemap-posts-page-1.xml</t>
-  </si>
-  <si>
-    <t>https://distit.se/sv/wp-sitemap-posts-mfn_news-1.xml</t>
-  </si>
-  <si>
-    <t>https://distit.se/sv/wp-sitemap-posts-shareholders-meeting-1.xml</t>
-  </si>
-  <si>
-    <t>https://distit.se/sv/wp-sitemap-posts-daughter-company-1.xml</t>
-  </si>
-  <si>
-    <t>https://distit.se/sv/wp-sitemap-posts-quote-1.xml</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -366,7 +372,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -688,7 +694,7 @@
     <col min="3" max="3" style="6" width="63.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,84 +718,84 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -800,23 +806,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -825,9 +831,9 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -836,9 +842,9 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -847,32 +853,32 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -880,10 +886,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -891,230 +897,230 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>48</v>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -1122,42 +1128,42 @@
         <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1166,9 +1172,9 @@
         <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1177,43 +1183,43 @@
         <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -1223,8 +1229,8 @@
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>70</v>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -1232,10 +1238,10 @@
         <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -1243,10 +1249,10 @@
         <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>72</v>
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -1254,10 +1260,10 @@
         <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -1265,10 +1271,10 @@
         <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -1276,32 +1282,32 @@
         <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
@@ -1309,10 +1315,10 @@
         <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -1320,10 +1326,10 @@
         <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -1331,20 +1337,20 @@
         <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1575,13 +1581,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE381D4F-434F-4262-BD36-C0F931C1CCAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84DD1803-31F5-4ACD-9677-F1B145BCF101}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A488FEF-A1D4-458C-B46D-B8399FA1F172}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465126EF-FC11-4B52-A4F8-2EE5A1C6E26E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{113B2DC3-B864-43ED-9CD7-D8C5274BC41E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C805CD4-58C6-47F7-A36E-757972254026}"/>
 </file>
--- a/sources/sitemaps_bolag.xlsx
+++ b/sources/sitemaps_bolag.xlsx
@@ -102,10 +102,10 @@
     <t>Web + IR</t>
   </si>
   <si>
-    <t>https://www.bernerindustrier.se/en/wp-sitemap-posts-post-1.xml</t>
-  </si>
-  <si>
-    <t>https://www.bernerindustrier.se/en/wp-sitemap-posts-page-1.xml</t>
+    <t>https://www.bernerindustrier.se/sv/wp-sitemap-posts-post-1.xml</t>
+  </si>
+  <si>
+    <t>https://www.bernerindustrier.se/sv/wp-sitemap-posts-page-1.xml</t>
   </si>
   <si>
     <t>DistIT</t>
@@ -1581,13 +1581,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84DD1803-31F5-4ACD-9677-F1B145BCF101}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA8CC70-2D93-4746-A717-19B4299B0B4A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465126EF-FC11-4B52-A4F8-2EE5A1C6E26E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607AF1A2-AD84-479C-A4B2-FAF4DBA33C0C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C805CD4-58C6-47F7-A36E-757972254026}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02270DBB-7C02-4A89-A035-06D05AA4AE8A}"/>
 </file>